--- a/data/Mini_Project_Artist_Disco.xlsx
+++ b/data/Mini_Project_Artist_Disco.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hortenciahernandez/Desktop/AOMG_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607FACEA-CA71-F248-BB52-050B8B856150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E75683-86E0-D44A-85E0-257142ADA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="500" windowWidth="23060" windowHeight="17380" xr2:uid="{80CE1B56-E2C5-3D43-B88C-10D7F7BB5994}"/>
+    <workbookView xWindow="12360" yWindow="660" windowWidth="16280" windowHeight="17200" xr2:uid="{80CE1B56-E2C5-3D43-B88C-10D7F7BB5994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1022</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1038</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="1371">
   <si>
     <t>Sweet Like</t>
   </si>
@@ -4092,6 +4092,66 @@
   </si>
   <si>
     <t>Yankie, DJ Wegun, dj friz</t>
+  </si>
+  <si>
+    <t>Remedy</t>
+  </si>
+  <si>
+    <t>Whenever (Japanese Version)</t>
+  </si>
+  <si>
+    <t>Whenever (English Version)</t>
+  </si>
+  <si>
+    <t>Matcha High</t>
+  </si>
+  <si>
+    <t>Papago</t>
+  </si>
+  <si>
+    <t>TAICHU, Young Coco</t>
+  </si>
+  <si>
+    <t>work++</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>Eh freestyle</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>1MILL</t>
+  </si>
+  <si>
+    <t>No where</t>
+  </si>
+  <si>
+    <t>Feby Putri</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>TOMMY YANG, 4BANG</t>
+  </si>
+  <si>
+    <t>too weak (2023)</t>
+  </si>
+  <si>
+    <t>Skoo / S.A</t>
+  </si>
+  <si>
+    <t>When you feel alone</t>
+  </si>
+  <si>
+    <t>UU</t>
   </si>
 </sst>
 </file>
@@ -4592,18 +4652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A90BB2-5656-1049-8BBB-25028EDFD243}">
-  <dimension ref="A1:F1021"/>
+  <dimension ref="A1:F1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1037" sqref="C1037"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="106.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -20263,8 +20323,244 @@
       <c r="C1021" s="5"/>
       <c r="E1021" s="1"/>
     </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023" s="14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1023" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1023" s="13">
+        <v>45856</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024" s="14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1024" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1024" s="13">
+        <v>45861</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1025" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1025" s="13">
+        <v>45861</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026" s="14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1026" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1026" s="13">
+        <v>45818</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1027" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1027" s="13">
+        <v>45818</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1028" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1028" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1029" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1029" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1030" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1030" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031" s="14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1031" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D1031" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1032" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1032" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1033" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1033" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1034" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1034" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035" s="14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1035" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1035" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036" s="14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1036" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1036" s="13">
+        <v>45846</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037" s="14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1037" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1037" s="13">
+        <v>45817</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1038" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1038" s="13">
+        <v>45867</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1022" xr:uid="{29A90BB2-5656-1049-8BBB-25028EDFD243}">
+  <autoFilter ref="A1:F1038" xr:uid="{29A90BB2-5656-1049-8BBB-25028EDFD243}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1022">
       <sortCondition ref="D1:D1022"/>
     </sortState>
